--- a/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
+++ b/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>2020-11-09</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Resenha Novos Clássicos</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Email</t>
         </is>
       </c>
@@ -486,7 +496,13 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>a230645@dac.unicamp.br</t>
         </is>
@@ -512,7 +528,13 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>b213549@dac.unicamp.br</t>
         </is>
@@ -538,7 +560,13 @@
       <c r="E4" t="n">
         <v>5.31</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>93.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>b257748@dac.unicamp.br</t>
         </is>
@@ -562,7 +590,13 @@
       <c r="E5" t="n">
         <v>2.65</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>c232568@dac.unicamp.br</t>
         </is>
@@ -588,7 +622,13 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>91.15000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>d233566@dac.unicamp.br</t>
         </is>
@@ -614,7 +654,13 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>f215626@dac.unicamp.br</t>
         </is>
@@ -638,7 +684,11 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>77.88</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>f91108@dac.unicamp.br</t>
         </is>
@@ -664,7 +714,13 @@
       <c r="E9" t="n">
         <v>1.77</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>92.92</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>f234311@dac.unicamp.br</t>
         </is>
@@ -690,7 +746,13 @@
       <c r="E10" t="n">
         <v>0.88</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>76.11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>g216397@dac.unicamp.br</t>
         </is>
@@ -716,7 +778,13 @@
       <c r="E11" t="n">
         <v>4.42</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>51.33</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>g197474@dac.unicamp.br</t>
         </is>
@@ -740,7 +808,13 @@
       <c r="E12" t="n">
         <v>13.27</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>g234982@dac.unicamp.br</t>
         </is>
@@ -766,7 +840,13 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>g235042@dac.unicamp.br</t>
         </is>
@@ -792,7 +872,13 @@
       <c r="E14" t="n">
         <v>0.88</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>74.34</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>g197724@dac.unicamp.br</t>
         </is>
@@ -814,7 +900,11 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>g217350@dac.unicamp.br</t>
         </is>
@@ -840,7 +930,13 @@
       <c r="E16" t="n">
         <v>4.42</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>g174154@dac.unicamp.br</t>
         </is>
@@ -862,7 +958,11 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>j237534@dac.unicamp.br</t>
         </is>
@@ -888,7 +988,13 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>91.15000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>j237856@dac.unicamp.br</t>
         </is>
@@ -914,7 +1020,13 @@
       <c r="E19" t="n">
         <v>3.54</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>j199967@dac.unicamp.br</t>
         </is>
@@ -940,7 +1052,13 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>93.81</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>l103034@dac.unicamp.br</t>
         </is>
@@ -966,7 +1084,13 @@
       <c r="E21" t="n">
         <v>5.31</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>l172577@dac.unicamp.br</t>
         </is>
@@ -992,7 +1116,13 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>91.15000000000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>m159866@dac.unicamp.br</t>
         </is>
@@ -1018,7 +1148,13 @@
       <c r="E23" t="n">
         <v>0.88</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>m221896@dac.unicamp.br</t>
         </is>
@@ -1044,7 +1180,13 @@
       <c r="E24" t="n">
         <v>0.88</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>93.81</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>m257876@dac.unicamp.br</t>
         </is>
@@ -1070,7 +1212,11 @@
       <c r="E25" t="n">
         <v>1.77</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>m242087@dac.unicamp.br</t>
         </is>
@@ -1092,7 +1238,13 @@
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>n242328@dac.unicamp.br</t>
         </is>
@@ -1118,7 +1270,13 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>p147614@dac.unicamp.br</t>
         </is>
@@ -1140,7 +1298,9 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>r176104@dac.unicamp.br</t>
         </is>
@@ -1162,7 +1322,11 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>r205149@dac.unicamp.br</t>
         </is>
@@ -1188,7 +1352,13 @@
       <c r="E30" t="n">
         <v>47.79</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>r205151@dac.unicamp.br</t>
         </is>
@@ -1214,7 +1384,13 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>s244207@dac.unicamp.br</t>
         </is>
@@ -1240,7 +1416,13 @@
       <c r="E32" t="n">
         <v>61.95</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="n">
+        <v>61.06</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7</v>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>t158425@dac.unicamp.br</t>
         </is>
@@ -1266,7 +1448,13 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>t257932@dac.unicamp.br</t>
         </is>
@@ -1292,7 +1480,13 @@
       <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>v177964@dac.unicamp.br</t>
         </is>
@@ -1318,7 +1512,13 @@
       <c r="E35" t="n">
         <v>53.98</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>v245099@dac.unicamp.br</t>
         </is>
@@ -1344,7 +1544,13 @@
       <c r="E36" t="n">
         <v>7.08</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>v206806@dac.unicamp.br</t>
         </is>
@@ -1366,7 +1572,11 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>w225851@dac.unicamp.br</t>
         </is>

--- a/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
+++ b/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
@@ -750,7 +750,7 @@
         <v>76.11</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>

--- a/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
+++ b/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,11 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Email</t>
         </is>
       </c>
@@ -526,7 +531,10 @@
       <c r="J2" t="n">
         <v>5</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>a230645@dac.unicamp.br</t>
         </is>
@@ -565,7 +573,10 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>b213549@dac.unicamp.br</t>
         </is>
@@ -606,7 +617,10 @@
       <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" t="n">
+        <v>80</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>b257748@dac.unicamp.br</t>
         </is>
@@ -645,7 +659,10 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" t="n">
+        <v>48.57</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>c232568@dac.unicamp.br</t>
         </is>
@@ -682,7 +699,8 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
         <is>
           <t>d233566@dac.unicamp.br</t>
         </is>
@@ -723,7 +741,10 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>f215626@dac.unicamp.br</t>
         </is>
@@ -758,7 +779,10 @@
         <v>76.47</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="K8" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>f91108@dac.unicamp.br</t>
         </is>
@@ -797,7 +821,10 @@
       <c r="J9" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>f234311@dac.unicamp.br</t>
         </is>
@@ -838,7 +865,10 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>g216397@dac.unicamp.br</t>
         </is>
@@ -879,7 +909,10 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>g197474@dac.unicamp.br</t>
         </is>
@@ -912,7 +945,8 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
         <is>
           <t>g234982@dac.unicamp.br</t>
         </is>
@@ -951,7 +985,10 @@
       <c r="J13" t="n">
         <v>5</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" t="n">
+        <v>82.86</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>g235042@dac.unicamp.br</t>
         </is>
@@ -992,7 +1029,10 @@
       <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" t="n">
+        <v>82.86</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>g197724@dac.unicamp.br</t>
         </is>
@@ -1021,7 +1061,8 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
         <is>
           <t>g217350@dac.unicamp.br</t>
         </is>
@@ -1058,7 +1099,8 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
         <is>
           <t>g174154@dac.unicamp.br</t>
         </is>
@@ -1089,7 +1131,10 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>j237534@dac.unicamp.br</t>
         </is>
@@ -1130,7 +1175,10 @@
       <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>j237856@dac.unicamp.br</t>
         </is>
@@ -1171,7 +1219,10 @@
       <c r="J19" t="n">
         <v>7</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="n">
+        <v>82.86</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>j199967@dac.unicamp.br</t>
         </is>
@@ -1212,7 +1263,10 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="n">
+        <v>89.52</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>l103034@dac.unicamp.br</t>
         </is>
@@ -1253,7 +1307,10 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" t="n">
+        <v>87.62</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>l172577@dac.unicamp.br</t>
         </is>
@@ -1294,7 +1351,10 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K22" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>m159866@dac.unicamp.br</t>
         </is>
@@ -1335,7 +1395,10 @@
       <c r="J23" t="n">
         <v>10</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>m221896@dac.unicamp.br</t>
         </is>
@@ -1376,7 +1439,10 @@
       <c r="J24" t="n">
         <v>10</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K24" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>m257876@dac.unicamp.br</t>
         </is>
@@ -1409,7 +1475,8 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
         <is>
           <t>m242087@dac.unicamp.br</t>
         </is>
@@ -1442,7 +1509,8 @@
       <c r="J26" t="n">
         <v>5</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
         <is>
           <t>n242328@dac.unicamp.br</t>
         </is>
@@ -1483,7 +1551,10 @@
       <c r="J27" t="n">
         <v>0</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>p147614@dac.unicamp.br</t>
         </is>
@@ -1510,7 +1581,8 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
         <is>
           <t>r176104@dac.unicamp.br</t>
         </is>
@@ -1541,7 +1613,8 @@
       <c r="J29" t="n">
         <v>0</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
         <is>
           <t>r205149@dac.unicamp.br</t>
         </is>
@@ -1580,7 +1653,10 @@
       <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K30" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>r205151@dac.unicamp.br</t>
         </is>
@@ -1619,7 +1695,10 @@
       <c r="J31" t="n">
         <v>0</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K31" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>s244207@dac.unicamp.br</t>
         </is>
@@ -1660,7 +1739,10 @@
       <c r="J32" t="n">
         <v>5</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>t158425@dac.unicamp.br</t>
         </is>
@@ -1701,7 +1783,10 @@
       <c r="J33" t="n">
         <v>0</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K33" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>t257932@dac.unicamp.br</t>
         </is>
@@ -1738,7 +1823,8 @@
       <c r="J34" t="n">
         <v>0</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
         <is>
           <t>v177964@dac.unicamp.br</t>
         </is>
@@ -1779,7 +1865,10 @@
       <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K35" t="n">
+        <v>43.81</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>v245099@dac.unicamp.br</t>
         </is>
@@ -1820,7 +1909,10 @@
       <c r="J36" t="n">
         <v>0</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K36" t="n">
+        <v>80</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>v206806@dac.unicamp.br</t>
         </is>
@@ -1853,7 +1945,10 @@
       <c r="J37" t="n">
         <v>0</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>w225851@dac.unicamp.br</t>
         </is>

--- a/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
+++ b/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Resenha Regime de Metas</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Email</t>
         </is>
       </c>
@@ -534,7 +539,10 @@
       <c r="K2" t="n">
         <v>4.76</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>a230645@dac.unicamp.br</t>
         </is>
@@ -576,7 +584,10 @@
       <c r="K3" t="n">
         <v>80.95</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>b213549@dac.unicamp.br</t>
         </is>
@@ -620,7 +631,10 @@
       <c r="K4" t="n">
         <v>80</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>b257748@dac.unicamp.br</t>
         </is>
@@ -662,7 +676,10 @@
       <c r="K5" t="n">
         <v>48.57</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>c232568@dac.unicamp.br</t>
         </is>
@@ -700,7 +717,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>d233566@dac.unicamp.br</t>
         </is>
@@ -744,7 +764,10 @@
       <c r="K7" t="n">
         <v>13.33</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>f215626@dac.unicamp.br</t>
         </is>
@@ -782,7 +805,8 @@
       <c r="K8" t="n">
         <v>11.43</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>f91108@dac.unicamp.br</t>
         </is>
@@ -824,7 +848,10 @@
       <c r="K9" t="n">
         <v>42.86</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>f234311@dac.unicamp.br</t>
         </is>
@@ -868,7 +895,10 @@
       <c r="K10" t="n">
         <v>28.57</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>g216397@dac.unicamp.br</t>
         </is>
@@ -912,7 +942,10 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>g197474@dac.unicamp.br</t>
         </is>
@@ -946,7 +979,8 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
         <is>
           <t>g234982@dac.unicamp.br</t>
         </is>
@@ -988,7 +1022,10 @@
       <c r="K13" t="n">
         <v>82.86</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>g235042@dac.unicamp.br</t>
         </is>
@@ -1032,7 +1069,10 @@
       <c r="K14" t="n">
         <v>82.86</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>g197724@dac.unicamp.br</t>
         </is>
@@ -1062,7 +1102,8 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
         <is>
           <t>g217350@dac.unicamp.br</t>
         </is>
@@ -1100,7 +1141,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>g174154@dac.unicamp.br</t>
         </is>
@@ -1134,7 +1178,10 @@
       <c r="K17" t="n">
         <v>11.43</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>j237534@dac.unicamp.br</t>
         </is>
@@ -1178,7 +1225,10 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>j237856@dac.unicamp.br</t>
         </is>
@@ -1222,7 +1272,10 @@
       <c r="K19" t="n">
         <v>82.86</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>j199967@dac.unicamp.br</t>
         </is>
@@ -1266,7 +1319,10 @@
       <c r="K20" t="n">
         <v>89.52</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>l103034@dac.unicamp.br</t>
         </is>
@@ -1310,7 +1366,10 @@
       <c r="K21" t="n">
         <v>87.62</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>l172577@dac.unicamp.br</t>
         </is>
@@ -1354,7 +1413,10 @@
       <c r="K22" t="n">
         <v>33.33</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>m159866@dac.unicamp.br</t>
         </is>
@@ -1398,7 +1460,10 @@
       <c r="K23" t="n">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>m221896@dac.unicamp.br</t>
         </is>
@@ -1442,7 +1507,10 @@
       <c r="K24" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>m257876@dac.unicamp.br</t>
         </is>
@@ -1476,7 +1544,8 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>m242087@dac.unicamp.br</t>
         </is>
@@ -1510,7 +1579,10 @@
         <v>5</v>
       </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>n242328@dac.unicamp.br</t>
         </is>
@@ -1554,7 +1626,10 @@
       <c r="K27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>p147614@dac.unicamp.br</t>
         </is>
@@ -1582,7 +1657,8 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
         <is>
           <t>r176104@dac.unicamp.br</t>
         </is>
@@ -1614,7 +1690,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>r205149@dac.unicamp.br</t>
         </is>
@@ -1656,7 +1735,10 @@
       <c r="K30" t="n">
         <v>63.81</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>r205151@dac.unicamp.br</t>
         </is>
@@ -1698,7 +1780,10 @@
       <c r="K31" t="n">
         <v>85.70999999999999</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="n">
+        <v>7</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>s244207@dac.unicamp.br</t>
         </is>
@@ -1742,7 +1827,10 @@
       <c r="K32" t="n">
         <v>19.05</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="n">
+        <v>10</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>t158425@dac.unicamp.br</t>
         </is>
@@ -1786,7 +1874,10 @@
       <c r="K33" t="n">
         <v>86.67</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="n">
+        <v>7</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>t257932@dac.unicamp.br</t>
         </is>
@@ -1824,7 +1915,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="n">
+        <v>10</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>v177964@dac.unicamp.br</t>
         </is>
@@ -1868,7 +1962,10 @@
       <c r="K35" t="n">
         <v>43.81</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="n">
+        <v>7</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>v245099@dac.unicamp.br</t>
         </is>
@@ -1912,7 +2009,10 @@
       <c r="K36" t="n">
         <v>80</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>v206806@dac.unicamp.br</t>
         </is>
@@ -1948,7 +2048,10 @@
       <c r="K37" t="n">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>w225851@dac.unicamp.br</t>
         </is>

--- a/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
+++ b/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,11 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Email</t>
         </is>
       </c>
@@ -542,7 +547,10 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>a230645@dac.unicamp.br</t>
         </is>
@@ -587,7 +595,10 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>b213549@dac.unicamp.br</t>
         </is>
@@ -634,7 +645,10 @@
       <c r="L4" t="n">
         <v>7</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>b257748@dac.unicamp.br</t>
         </is>
@@ -679,7 +693,10 @@
       <c r="L5" t="n">
         <v>7</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>c232568@dac.unicamp.br</t>
         </is>
@@ -720,7 +737,10 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>d233566@dac.unicamp.br</t>
         </is>
@@ -767,7 +787,10 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>f215626@dac.unicamp.br</t>
         </is>
@@ -806,7 +829,10 @@
         <v>11.43</v>
       </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>f91108@dac.unicamp.br</t>
         </is>
@@ -851,7 +877,10 @@
       <c r="L9" t="n">
         <v>7</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>f234311@dac.unicamp.br</t>
         </is>
@@ -898,7 +927,10 @@
       <c r="L10" t="n">
         <v>7</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>g216397@dac.unicamp.br</t>
         </is>
@@ -945,7 +977,10 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" t="n">
+        <v>100</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>g197474@dac.unicamp.br</t>
         </is>
@@ -980,7 +1015,10 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>g234982@dac.unicamp.br</t>
         </is>
@@ -1025,7 +1063,10 @@
       <c r="L13" t="n">
         <v>5</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>g235042@dac.unicamp.br</t>
         </is>
@@ -1072,7 +1113,10 @@
       <c r="L14" t="n">
         <v>5</v>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>g197724@dac.unicamp.br</t>
         </is>
@@ -1103,7 +1147,8 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
         <is>
           <t>g217350@dac.unicamp.br</t>
         </is>
@@ -1144,7 +1189,10 @@
       <c r="L16" t="n">
         <v>0</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>g174154@dac.unicamp.br</t>
         </is>
@@ -1181,7 +1229,8 @@
       <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
         <is>
           <t>j237534@dac.unicamp.br</t>
         </is>
@@ -1228,7 +1277,10 @@
       <c r="L18" t="n">
         <v>7</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>j237856@dac.unicamp.br</t>
         </is>
@@ -1275,7 +1327,10 @@
       <c r="L19" t="n">
         <v>10</v>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" t="n">
+        <v>59.46</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>j199967@dac.unicamp.br</t>
         </is>
@@ -1322,7 +1377,10 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>l103034@dac.unicamp.br</t>
         </is>
@@ -1369,7 +1427,10 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>l172577@dac.unicamp.br</t>
         </is>
@@ -1416,7 +1477,10 @@
       <c r="L22" t="n">
         <v>7</v>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>m159866@dac.unicamp.br</t>
         </is>
@@ -1463,7 +1527,10 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>m221896@dac.unicamp.br</t>
         </is>
@@ -1510,7 +1577,10 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>m257876@dac.unicamp.br</t>
         </is>
@@ -1545,7 +1615,10 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>m242087@dac.unicamp.br</t>
         </is>
@@ -1582,7 +1655,10 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>n242328@dac.unicamp.br</t>
         </is>
@@ -1629,7 +1705,10 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>p147614@dac.unicamp.br</t>
         </is>
@@ -1658,7 +1737,8 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
         <is>
           <t>r176104@dac.unicamp.br</t>
         </is>
@@ -1693,7 +1773,8 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
         <is>
           <t>r205149@dac.unicamp.br</t>
         </is>
@@ -1738,7 +1819,10 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>r205151@dac.unicamp.br</t>
         </is>
@@ -1781,9 +1865,12 @@
         <v>85.70999999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
-      </c>
-      <c r="M31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>s244207@dac.unicamp.br</t>
         </is>
@@ -1830,7 +1917,10 @@
       <c r="L32" t="n">
         <v>10</v>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>t158425@dac.unicamp.br</t>
         </is>
@@ -1877,7 +1967,10 @@
       <c r="L33" t="n">
         <v>7</v>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>t257932@dac.unicamp.br</t>
         </is>
@@ -1918,7 +2011,10 @@
       <c r="L34" t="n">
         <v>10</v>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>v177964@dac.unicamp.br</t>
         </is>
@@ -1965,7 +2061,10 @@
       <c r="L35" t="n">
         <v>7</v>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>v245099@dac.unicamp.br</t>
         </is>
@@ -2012,7 +2111,10 @@
       <c r="L36" t="n">
         <v>3</v>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M36" t="n">
+        <v>83.78</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>v206806@dac.unicamp.br</t>
         </is>
@@ -2051,7 +2153,10 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M37" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>w225851@dac.unicamp.br</t>
         </is>

--- a/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
+++ b/Materias/2S2020/PED_CE342/Turma_C/output/CE342_C.xlsx
@@ -799,7 +799,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>91108</t>
+          <t>091108</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -807,7 +807,9 @@
           <t>felipe eboli sotorilli</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
       <c r="D8" t="n">
         <v>1.79</v>
       </c>
@@ -817,24 +819,30 @@
       <c r="F8" t="n">
         <v>77.88</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
       <c r="H8" t="n">
         <v>29.17</v>
       </c>
       <c r="I8" t="n">
         <v>76.47</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
       <c r="K8" t="n">
         <v>11.43</v>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>f91108@dac.unicamp.br</t>
+          <t>f091108@dac.unicamp.br</t>
         </is>
       </c>
     </row>
